--- a/12.3开发任务/12.3生产委外分销(20170410).xlsx
+++ b/12.3开发任务/12.3生产委外分销(20170410).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陈呈\Desktop\12.3开发任务\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\work\12.3开发任务\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14520" windowHeight="4103"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9158"/>
   </bookViews>
   <sheets>
     <sheet name="12.3任务" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="75">
   <si>
     <t>任务模式</t>
   </si>
@@ -122,9 +122,6 @@
     <t xml:space="preserve">         委外的处理</t>
   </si>
   <si>
-    <t xml:space="preserve">      DR-15691，生产加工单损耗率位数调整(生产加工单损耗率取值范围调整，调整为整数6位（目前手工录入只能录入2位）修改加工单，再搜一下用到损耗率的地方是否需要调整。)</t>
-  </si>
-  <si>
     <t xml:space="preserve">      自测</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t xml:space="preserve">         1、查询条件;2、分组设置;3、查询结果;4、按钮;5、联查;6、权限;7、版本</t>
   </si>
   <si>
-    <t xml:space="preserve">      DR-15709，条码解析增加数量2对生产加工单的影响</t>
-  </si>
-  <si>
     <t xml:space="preserve">      DR-15715，条码支持模糊参照对生产加工单的影响</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
   </si>
   <si>
     <t xml:space="preserve">      DR-15667,委外费用单支持修改价格(关键数据：单价、金额、折扣、税率等允许修改)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DR-15679,委外费用单增加暂估生成的出入单的影响(2、委外费用单操作规则：保存（无审）、审核（有审）时自动生成委外核算单；删除（无审）、弃审（有审）时删除自动生成的委外核算单，委外核算单对应的入库调整单、出库调整单生成凭证，不允许删除/弃审委外费用单)</t>
   </si>
   <si>
     <t xml:space="preserve">      DR-15649,条码解析增加数量2对委外加工单的影响</t>
@@ -247,6 +238,190 @@
   </si>
   <si>
     <t>12.2SP3已处理，直接同步即可</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      DR-15679,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>委外费用单增加暂估生成的出入单的影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、委外费用单操作规则：保存（无审）、审核（有审）时自动生成委外核算单；删除（无审）、弃审（有审）时删除自动生成的委外核算单，委外核算单对应的入库调整单、出库调整单生成凭证，不允许删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弃审委外费用单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已自测完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      DR-15691</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，生产加工单损耗率位数调整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产加工单损耗率取值范围调整，调整为整数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位（目前手工录入只能录入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位）修改加工单，再搜一下用到损耗率的地方是否需要调整。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      DR-15709</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，条码解析增加数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对生产加工单的影响</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +478,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -771,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="74.265625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -816,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" s="3">
         <v>42835</v>
@@ -835,7 +1017,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" s="3">
         <v>42835</v>
@@ -1001,12 +1183,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="27.75" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
@@ -1029,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>10</v>
@@ -1052,7 +1234,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -1071,7 +1253,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
@@ -1094,7 +1276,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>13</v>
@@ -1117,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>9</v>
@@ -1140,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>9</v>
@@ -1163,7 +1345,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>14</v>
@@ -1209,7 +1391,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>15</v>
@@ -1255,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>16</v>
@@ -1278,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
@@ -1297,7 +1479,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>10</v>
@@ -1341,7 +1523,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>10</v>
@@ -1387,7 +1569,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>10</v>
@@ -1433,7 +1615,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>10</v>
@@ -1479,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>10</v>
@@ -1525,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>10</v>
@@ -1571,7 +1753,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>13</v>
@@ -1594,7 +1776,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>14</v>
@@ -1640,7 +1822,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
@@ -1659,7 +1841,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>18</v>
@@ -1705,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>10</v>
@@ -1728,7 +1910,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>13</v>
@@ -1751,7 +1933,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>10</v>
@@ -1774,7 +1956,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>13</v>
@@ -1797,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>19</v>
@@ -1816,7 +1998,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>10</v>
@@ -1837,7 +2019,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>13</v>
@@ -1860,7 +2042,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>10</v>
@@ -1883,7 +2065,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>13</v>
@@ -1906,7 +2088,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>9</v>
@@ -1929,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>13</v>
@@ -1952,7 +2134,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>10</v>
@@ -1975,7 +2157,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>13</v>
@@ -1998,7 +2180,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>9</v>
@@ -2021,7 +2203,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>13</v>
@@ -2044,7 +2226,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>9</v>
@@ -2067,7 +2249,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>10</v>
@@ -2090,10 +2272,10 @@
         <v>5</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D59" s="3">
         <v>42835</v>
@@ -2109,7 +2291,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>9</v>
@@ -2125,7 +2307,7 @@
         <v>20</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="12" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
@@ -2133,7 +2315,7 @@
         <v>5</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>10</v>
@@ -2151,12 +2333,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="12" customFormat="1" ht="55.15" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>9</v>
@@ -2174,7 +2356,7 @@
         <v>20</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="12" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
@@ -2182,7 +2364,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>10</v>
@@ -2205,7 +2387,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>10</v>
@@ -2223,12 +2405,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>13</v>
@@ -2246,12 +2428,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>10</v>
@@ -2269,12 +2451,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>13</v>
@@ -2292,58 +2474,61 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="5" t="s">
+    <row r="68" spans="1:8" s="12" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A68" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="10">
+        <v>42858</v>
+      </c>
+      <c r="E68" s="10">
+        <v>42860</v>
+      </c>
+      <c r="F68" s="8">
+        <v>66</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="12" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A69" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="10">
+        <v>42863</v>
+      </c>
+      <c r="E69" s="10">
+        <v>42864</v>
+      </c>
+      <c r="F69" s="8">
         <v>67</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="7">
-        <v>42858</v>
-      </c>
-      <c r="E68" s="7">
-        <v>42860</v>
-      </c>
-      <c r="F68" s="5">
-        <v>66</v>
-      </c>
-      <c r="G68" s="5" t="s">
+      <c r="G69" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="7">
-        <v>42863</v>
-      </c>
-      <c r="E69" s="7">
-        <v>42864</v>
-      </c>
-      <c r="F69" s="5">
-        <v>67</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>10</v>
@@ -2361,12 +2546,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>13</v>
@@ -2384,12 +2569,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>13</v>
@@ -2407,12 +2592,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>13</v>
